--- a/book_manual_inspections/book_metadata_content.xlsx
+++ b/book_manual_inspections/book_metadata_content.xlsx
@@ -7,8 +7,8 @@
     <sheet state="visible" name="book_content_inspection_merged" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="topic_coverage_matrix" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="frameworks_tools" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="LDA results" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="content_delivery" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="content_delivery" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="LDA results" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -129,7 +129,7 @@
     <t>Rick D. Craig, Stefan P. Jaskiel</t>
   </si>
   <si>
-    <t>Software testers, who wants to gain indepth knowledge about processes such as test management, plan, design.</t>
+    <t>Software testers, who wants to gain indepth knowledge about general test processes</t>
   </si>
   <si>
     <t>A Practitioner's Guide to Software Testing</t>
@@ -697,6 +697,18 @@
     <t xml:space="preserve">x </t>
   </si>
   <si>
+    <t>Content Delivery</t>
+  </si>
+  <si>
+    <t>Code Examples</t>
+  </si>
+  <si>
+    <t>Exercise Questions / Quizzes</t>
+  </si>
+  <si>
+    <t>Case Studies</t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -779,18 +791,6 @@
   </si>
   <si>
     <t>0.045*"module" + 0.013*"box" + 0.009*"white" + 0.006*"dynamic" + 0.005*"driver" + 0.004*"bottom" + 0.004*"black" + 0.004*"stub"</t>
-  </si>
-  <si>
-    <t>Content Delivery</t>
-  </si>
-  <si>
-    <t>Code Examples</t>
-  </si>
-  <si>
-    <t>Exercise Questions / Quizzes</t>
-  </si>
-  <si>
-    <t>Case Studies</t>
   </si>
 </sst>
 </file>
@@ -824,17 +824,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -974,32 +974,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4617,123 +4617,186 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.88"/>
-    <col customWidth="1" min="3" max="3" width="84.63"/>
+    <col customWidth="1" min="1" max="1" width="36.5"/>
+    <col customWidth="1" min="2" max="2" width="13.38"/>
+    <col customWidth="1" min="3" max="3" width="27.75"/>
+    <col customWidth="1" min="4" max="4" width="18.75"/>
+    <col customWidth="1" min="5" max="5" width="26.88"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="16" t="s">
+    <row r="4">
+      <c r="B4" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="17" t="s">
+    </row>
+    <row r="5">
+      <c r="B5" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="18" t="s">
+      <c r="C5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D5" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
     <row r="6">
-      <c r="B6" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>221</v>
+      <c r="A6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>223</v>
+      <c r="A7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>225</v>
+      <c r="A8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>227</v>
+      <c r="A9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>229</v>
+      <c r="A10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>231</v>
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>233</v>
+      <c r="A12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>235</v>
+      <c r="A13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>237</v>
+      <c r="A14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>239</v>
-      </c>
+      <c r="A15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="15">
+        <f t="shared" ref="B20:D20" si="1">COUNTA(B6:B19)</f>
+        <v>11</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4748,186 +4811,123 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.5"/>
-    <col customWidth="1" min="2" max="2" width="13.38"/>
-    <col customWidth="1" min="3" max="3" width="27.75"/>
-    <col customWidth="1" min="4" max="4" width="18.75"/>
-    <col customWidth="1" min="5" max="5" width="26.88"/>
+    <col customWidth="1" min="2" max="2" width="30.88"/>
+    <col customWidth="1" min="3" max="3" width="84.63"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="B2" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
     <row r="4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="22" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="7" t="s">
+      <c r="C14" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="15">
+      <c r="B15" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C15" s="23" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="15">
-        <f t="shared" ref="B20:D20" si="1">COUNTA(B6:B19)</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D20" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" s="24"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:D4"/>
-  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/book_manual_inspections/book_metadata_content.xlsx
+++ b/book_manual_inspections/book_metadata_content.xlsx
@@ -260,7 +260,7 @@
     <t>All except chapter 7</t>
   </si>
   <si>
-    <t>Debugging, Defect/Bug Reporting, Test Planning, Test Monitoring, Test Design, Test Scripting, Test Oracles, Unit (Component) Testing, Integration Testing, System Testing, Acceptance Testing, Testing Levels, Regression Testing, Agile Testing, Functional/Non-Functional Testing, White Box Testing, Static Analysis, Ad-Hoc Testing, Risk Analysis, Black-Box Testing, Equivalence Partitioning, Boundary Analysis, Coverage Analysis, Exploratory Testing, Decision Tables, Data Flow, State Analysis, Usability Testing, Model Based Testing, Test Execution, Configuration Testing, Defect Reporting, Test Documentation, Test Tool Selection, Test Automation, Test Management.</t>
+    <t>Debugging, Defect/Bug Reporting, Test Planning, Test Monitoring, Test Design, Test Scripting, Test Oracles, Unit (Component) Testing, Integration Testing, System Testing, Acceptance Testing, Testing Levels, Regression Testing, Agile Testing, Functional/Non-Functional Testing, White Box Testing, Static Analysis, Ad-Hoc Testing, Risk Analysis, Black-Box Testing, Equivalence Partitioning, Boundary Analysis, Coverage Analysis, Exploratory Testing, Decision Tables, Data Flow, State Analysis, Model Based Testing, Test Execution, Configuration Testing, Defect Reporting, Test Documentation, Test Tool Selection, Test Automation, Test Management.</t>
   </si>
   <si>
     <r>
